--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Tff2</t>
+  </si>
+  <si>
+    <t>Cxcr4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tff2</t>
-  </si>
-  <si>
-    <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.392062</v>
+        <v>0.1215283333333333</v>
       </c>
       <c r="H2">
-        <v>1.176186</v>
+        <v>0.364585</v>
       </c>
       <c r="I2">
-        <v>0.165942803933464</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="J2">
-        <v>0.1659428039334641</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N2">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q2">
-        <v>5.999459098651331</v>
+        <v>5.396310976607778</v>
       </c>
       <c r="R2">
-        <v>53.99513188786199</v>
+        <v>48.56679878947</v>
       </c>
       <c r="S2">
-        <v>0.002427357718545377</v>
+        <v>0.007001814127608544</v>
       </c>
       <c r="T2">
-        <v>0.002427357718545377</v>
+        <v>0.007001814127608543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.392062</v>
+        <v>0.1215283333333333</v>
       </c>
       <c r="H3">
-        <v>1.176186</v>
+        <v>0.364585</v>
       </c>
       <c r="I3">
-        <v>0.165942803933464</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="J3">
-        <v>0.1659428039334641</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q3">
-        <v>0.09049771115000001</v>
+        <v>0.02805177754166667</v>
       </c>
       <c r="R3">
-        <v>0.81447940035</v>
+        <v>0.252465997875</v>
       </c>
       <c r="S3">
-        <v>3.661502046409884E-05</v>
+        <v>3.639770449612651E-05</v>
       </c>
       <c r="T3">
-        <v>3.661502046409885E-05</v>
+        <v>3.639770449612651E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.392062</v>
+        <v>0.1215283333333333</v>
       </c>
       <c r="H4">
-        <v>1.176186</v>
+        <v>0.364585</v>
       </c>
       <c r="I4">
-        <v>0.165942803933464</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="J4">
-        <v>0.1659428039334641</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N4">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q4">
-        <v>97.59188877085998</v>
+        <v>28.26755348755722</v>
       </c>
       <c r="R4">
-        <v>878.3269989377399</v>
+        <v>254.407981388015</v>
       </c>
       <c r="S4">
-        <v>0.03948529702096334</v>
+        <v>0.03667767780991138</v>
       </c>
       <c r="T4">
-        <v>0.03948529702096335</v>
+        <v>0.03667767780991138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.392062</v>
+        <v>0.1215283333333333</v>
       </c>
       <c r="H5">
-        <v>1.176186</v>
+        <v>0.364585</v>
       </c>
       <c r="I5">
-        <v>0.165942803933464</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="J5">
-        <v>0.1659428039334641</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N5">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q5">
-        <v>13.45674977624267</v>
+        <v>1.049938931643333</v>
       </c>
       <c r="R5">
-        <v>121.110747986184</v>
+        <v>9.44945038479</v>
       </c>
       <c r="S5">
-        <v>0.005444548399911467</v>
+        <v>0.001362315344051537</v>
       </c>
       <c r="T5">
-        <v>0.005444548399911469</v>
+        <v>0.001362315344051537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.392062</v>
+        <v>0.1215283333333333</v>
       </c>
       <c r="H6">
-        <v>1.176186</v>
+        <v>0.364585</v>
       </c>
       <c r="I6">
-        <v>0.165942803933464</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="J6">
-        <v>0.1659428039334641</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N6">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q6">
-        <v>184.6273018364206</v>
+        <v>64.83385515513112</v>
       </c>
       <c r="R6">
-        <v>1661.645716527786</v>
+        <v>583.50469639618</v>
       </c>
       <c r="S6">
-        <v>0.07469948520318898</v>
+        <v>0.08412313614622102</v>
       </c>
       <c r="T6">
-        <v>0.074699485203189</v>
+        <v>0.08412313614622102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.392062</v>
+        <v>0.1215283333333333</v>
       </c>
       <c r="H7">
-        <v>1.176186</v>
+        <v>0.364585</v>
       </c>
       <c r="I7">
-        <v>0.165942803933464</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="J7">
-        <v>0.1659428039334641</v>
+        <v>0.1536274595731627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N7">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q7">
-        <v>108.3784574306573</v>
+        <v>18.825254234995</v>
       </c>
       <c r="R7">
-        <v>975.406116875916</v>
+        <v>169.427288114955</v>
       </c>
       <c r="S7">
-        <v>0.04384950057039076</v>
+        <v>0.02442611844087409</v>
       </c>
       <c r="T7">
-        <v>0.04384950057039078</v>
+        <v>0.02442611844087409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.6705186666666666</v>
+        <v>0.3172606666666666</v>
       </c>
       <c r="H8">
-        <v>2.011556</v>
+        <v>0.9517819999999999</v>
       </c>
       <c r="I8">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="J8">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N8">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q8">
-        <v>10.26049276785022</v>
+        <v>14.08755613625822</v>
       </c>
       <c r="R8">
-        <v>92.34443491065197</v>
+        <v>126.788005226324</v>
       </c>
       <c r="S8">
-        <v>0.004151355298299983</v>
+        <v>0.01827886680473282</v>
       </c>
       <c r="T8">
-        <v>0.004151355298299983</v>
+        <v>0.01827886680473282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.6705186666666666</v>
+        <v>0.3172606666666666</v>
       </c>
       <c r="H9">
-        <v>2.011556</v>
+        <v>0.9517819999999999</v>
       </c>
       <c r="I9">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="J9">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q9">
-        <v>0.1547724712333333</v>
+        <v>0.07323169338333334</v>
       </c>
       <c r="R9">
-        <v>1.3929522411</v>
+        <v>0.6590852404499999</v>
       </c>
       <c r="S9">
-        <v>6.262033734858331E-05</v>
+        <v>9.501948785806405E-05</v>
       </c>
       <c r="T9">
-        <v>6.262033734858332E-05</v>
+        <v>9.501948785806404E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.6705186666666666</v>
+        <v>0.3172606666666666</v>
       </c>
       <c r="H10">
-        <v>2.011556</v>
+        <v>0.9517819999999999</v>
       </c>
       <c r="I10">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="J10">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N10">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q10">
-        <v>166.9051913628933</v>
+        <v>73.79499593645977</v>
       </c>
       <c r="R10">
-        <v>1502.14672226604</v>
+        <v>664.1549634281379</v>
       </c>
       <c r="S10">
-        <v>0.06752918852485995</v>
+        <v>0.09575038342573905</v>
       </c>
       <c r="T10">
-        <v>0.06752918852485996</v>
+        <v>0.09575038342573905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.6705186666666666</v>
+        <v>0.3172606666666666</v>
       </c>
       <c r="H11">
-        <v>2.011556</v>
+        <v>0.9517819999999999</v>
       </c>
       <c r="I11">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="J11">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N11">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q11">
-        <v>23.01422203027377</v>
+        <v>2.740960204718666</v>
       </c>
       <c r="R11">
-        <v>207.127998272464</v>
+        <v>24.668641842468</v>
       </c>
       <c r="S11">
-        <v>0.009311464344187323</v>
+        <v>0.003556446981614877</v>
       </c>
       <c r="T11">
-        <v>0.009311464344187325</v>
+        <v>0.003556446981614877</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6705186666666666</v>
+        <v>0.3172606666666666</v>
       </c>
       <c r="H12">
-        <v>2.011556</v>
+        <v>0.9517819999999999</v>
       </c>
       <c r="I12">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="J12">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N12">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q12">
-        <v>315.7563147094617</v>
+        <v>169.2546219050729</v>
       </c>
       <c r="R12">
-        <v>2841.806832385155</v>
+        <v>1523.291597145656</v>
       </c>
       <c r="S12">
-        <v>0.1277537716461393</v>
+        <v>0.2196110283405037</v>
       </c>
       <c r="T12">
-        <v>0.1277537716461393</v>
+        <v>0.2196110283405037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6705186666666666</v>
+        <v>0.3172606666666666</v>
       </c>
       <c r="H13">
-        <v>2.011556</v>
+        <v>0.9517819999999999</v>
       </c>
       <c r="I13">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="J13">
-        <v>0.283801408033409</v>
+        <v>0.4010583285858276</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N13">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q13">
-        <v>185.3527727037929</v>
+        <v>49.14502276915399</v>
       </c>
       <c r="R13">
-        <v>1668.174954334136</v>
+        <v>442.3052049223859</v>
       </c>
       <c r="S13">
-        <v>0.07499300788257379</v>
+        <v>0.06376658354537908</v>
       </c>
       <c r="T13">
-        <v>0.07499300788257382</v>
+        <v>0.06376658354537908</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04583666666666666</v>
+        <v>0.3522696666666667</v>
       </c>
       <c r="H14">
-        <v>0.13751</v>
+        <v>1.056809</v>
       </c>
       <c r="I14">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="J14">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N14">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q14">
-        <v>0.7014074480188888</v>
+        <v>15.64208622647089</v>
       </c>
       <c r="R14">
-        <v>6.312667032169999</v>
+        <v>140.778776038238</v>
       </c>
       <c r="S14">
-        <v>0.0002837867139016914</v>
+        <v>0.02029589858711647</v>
       </c>
       <c r="T14">
-        <v>0.0002837867139016914</v>
+        <v>0.02029589858711647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04583666666666666</v>
+        <v>0.3522696666666667</v>
       </c>
       <c r="H15">
-        <v>0.13751</v>
+        <v>1.056809</v>
       </c>
       <c r="I15">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="J15">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q15">
-        <v>0.01058024858333333</v>
+        <v>0.08131264580833335</v>
       </c>
       <c r="R15">
-        <v>0.09522223725000001</v>
+        <v>0.7318138122750002</v>
       </c>
       <c r="S15">
-        <v>4.280727252337838E-06</v>
+        <v>0.000105504674330669</v>
       </c>
       <c r="T15">
-        <v>4.280727252337839E-06</v>
+        <v>0.000105504674330669</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04583666666666666</v>
+        <v>0.3522696666666667</v>
       </c>
       <c r="H16">
-        <v>0.13751</v>
+        <v>1.056809</v>
       </c>
       <c r="I16">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="J16">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N16">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q16">
-        <v>11.40964152343333</v>
+        <v>81.93810752947012</v>
       </c>
       <c r="R16">
-        <v>102.6867737109</v>
+        <v>737.4429677652311</v>
       </c>
       <c r="S16">
-        <v>0.00461629639644807</v>
+        <v>0.1063162225780398</v>
       </c>
       <c r="T16">
-        <v>0.004616296396448071</v>
+        <v>0.1063162225780398</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04583666666666666</v>
+        <v>0.3522696666666667</v>
       </c>
       <c r="H17">
-        <v>0.13751</v>
+        <v>1.056809</v>
       </c>
       <c r="I17">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="J17">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N17">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q17">
-        <v>1.573252582271111</v>
+        <v>3.043418989840667</v>
       </c>
       <c r="R17">
-        <v>14.15927324044</v>
+        <v>27.390770908566</v>
       </c>
       <c r="S17">
-        <v>0.0006365318499555563</v>
+        <v>0.003948892895845307</v>
       </c>
       <c r="T17">
-        <v>0.0006365318499555564</v>
+        <v>0.003948892895845307</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04583666666666666</v>
+        <v>0.3522696666666667</v>
       </c>
       <c r="H18">
-        <v>0.13751</v>
+        <v>1.056809</v>
       </c>
       <c r="I18">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="J18">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N18">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q18">
-        <v>21.58510667150111</v>
+        <v>187.9314882198636</v>
       </c>
       <c r="R18">
-        <v>194.26596004351</v>
+        <v>1691.383393978772</v>
       </c>
       <c r="S18">
-        <v>0.00873324985188611</v>
+        <v>0.2438446106876358</v>
       </c>
       <c r="T18">
-        <v>0.008733249851886112</v>
+        <v>0.2438446106876358</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04583666666666666</v>
+        <v>0.3522696666666667</v>
       </c>
       <c r="H19">
-        <v>0.13751</v>
+        <v>1.056809</v>
       </c>
       <c r="I19">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="J19">
-        <v>0.01940066874532654</v>
+        <v>0.4453142118410097</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N19">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q19">
-        <v>12.67071847589555</v>
+        <v>54.568065342323</v>
       </c>
       <c r="R19">
-        <v>114.03646628306</v>
+        <v>491.112588080907</v>
       </c>
       <c r="S19">
-        <v>0.005126523205882771</v>
+        <v>0.07080308241804166</v>
       </c>
       <c r="T19">
-        <v>0.005126523205882774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.3522696666666667</v>
-      </c>
-      <c r="H20">
-        <v>1.056809</v>
-      </c>
-      <c r="I20">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="J20">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>15.30232233333333</v>
-      </c>
-      <c r="N20">
-        <v>45.90696699999999</v>
-      </c>
-      <c r="O20">
-        <v>0.01462767689232637</v>
-      </c>
-      <c r="P20">
-        <v>0.01462767689232637</v>
-      </c>
-      <c r="Q20">
-        <v>5.390543987589222</v>
-      </c>
-      <c r="R20">
-        <v>48.514895888303</v>
-      </c>
-      <c r="S20">
-        <v>0.00218099304291857</v>
-      </c>
-      <c r="T20">
-        <v>0.002180993042918571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.3522696666666667</v>
-      </c>
-      <c r="H21">
-        <v>1.056809</v>
-      </c>
-      <c r="I21">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="J21">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.230825</v>
-      </c>
-      <c r="N21">
-        <v>0.6924750000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.0002206484378724847</v>
-      </c>
-      <c r="P21">
-        <v>0.0002206484378724847</v>
-      </c>
-      <c r="Q21">
-        <v>0.08131264580833335</v>
-      </c>
-      <c r="R21">
-        <v>0.7318138122750002</v>
-      </c>
-      <c r="S21">
-        <v>3.289877890201366E-05</v>
-      </c>
-      <c r="T21">
-        <v>3.289877890201366E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.3522696666666667</v>
-      </c>
-      <c r="H22">
-        <v>1.056809</v>
-      </c>
-      <c r="I22">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="J22">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>248.91953</v>
-      </c>
-      <c r="N22">
-        <v>746.7585899999999</v>
-      </c>
-      <c r="O22">
-        <v>0.2379452201904173</v>
-      </c>
-      <c r="P22">
-        <v>0.2379452201904173</v>
-      </c>
-      <c r="Q22">
-        <v>87.68679985992334</v>
-      </c>
-      <c r="R22">
-        <v>789.1811987393099</v>
-      </c>
-      <c r="S22">
-        <v>0.03547773673502937</v>
-      </c>
-      <c r="T22">
-        <v>0.03547773673502938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.3522696666666667</v>
-      </c>
-      <c r="H23">
-        <v>1.056809</v>
-      </c>
-      <c r="I23">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="J23">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>34.32301466666667</v>
-      </c>
-      <c r="N23">
-        <v>102.969044</v>
-      </c>
-      <c r="O23">
-        <v>0.03280978910115619</v>
-      </c>
-      <c r="P23">
-        <v>0.03280978910115619</v>
-      </c>
-      <c r="Q23">
-        <v>12.09095693562178</v>
-      </c>
-      <c r="R23">
-        <v>108.818612420596</v>
-      </c>
-      <c r="S23">
-        <v>0.004891953951128511</v>
-      </c>
-      <c r="T23">
-        <v>0.004891953951128512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.3522696666666667</v>
-      </c>
-      <c r="H24">
-        <v>1.056809</v>
-      </c>
-      <c r="I24">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="J24">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>470.9135336666666</v>
-      </c>
-      <c r="N24">
-        <v>1412.740601</v>
-      </c>
-      <c r="O24">
-        <v>0.4501520007649158</v>
-      </c>
-      <c r="P24">
-        <v>0.4501520007649158</v>
-      </c>
-      <c r="Q24">
-        <v>165.8885535335788</v>
-      </c>
-      <c r="R24">
-        <v>1492.996981802209</v>
-      </c>
-      <c r="S24">
-        <v>0.06711786082991716</v>
-      </c>
-      <c r="T24">
-        <v>0.06711786082991719</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.3522696666666667</v>
-      </c>
-      <c r="H25">
-        <v>1.056809</v>
-      </c>
-      <c r="I25">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="J25">
-        <v>0.1491004387759421</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>276.4319353333333</v>
-      </c>
-      <c r="N25">
-        <v>829.2958060000001</v>
-      </c>
-      <c r="O25">
-        <v>0.2642446646133118</v>
-      </c>
-      <c r="P25">
-        <v>0.2642446646133118</v>
-      </c>
-      <c r="Q25">
-        <v>97.3785857158949</v>
-      </c>
-      <c r="R25">
-        <v>876.4072714430541</v>
-      </c>
-      <c r="S25">
-        <v>0.03939899543804644</v>
-      </c>
-      <c r="T25">
-        <v>0.03939899543804646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.9019463333333334</v>
-      </c>
-      <c r="H26">
-        <v>2.705839</v>
-      </c>
-      <c r="I26">
-        <v>0.3817546805118582</v>
-      </c>
-      <c r="J26">
-        <v>0.3817546805118583</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>15.30232233333333</v>
-      </c>
-      <c r="N26">
-        <v>45.90696699999999</v>
-      </c>
-      <c r="O26">
-        <v>0.01462767689232637</v>
-      </c>
-      <c r="P26">
-        <v>0.01462767689232637</v>
-      </c>
-      <c r="Q26">
-        <v>13.80187352003478</v>
-      </c>
-      <c r="R26">
-        <v>124.216861680313</v>
-      </c>
-      <c r="S26">
-        <v>0.005584184118660743</v>
-      </c>
-      <c r="T26">
-        <v>0.005584184118660744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.9019463333333334</v>
-      </c>
-      <c r="H27">
-        <v>2.705839</v>
-      </c>
-      <c r="I27">
-        <v>0.3817546805118582</v>
-      </c>
-      <c r="J27">
-        <v>0.3817546805118583</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.230825</v>
-      </c>
-      <c r="N27">
-        <v>0.6924750000000001</v>
-      </c>
-      <c r="O27">
-        <v>0.0002206484378724847</v>
-      </c>
-      <c r="P27">
-        <v>0.0002206484378724847</v>
-      </c>
-      <c r="Q27">
-        <v>0.2081917623916667</v>
-      </c>
-      <c r="R27">
-        <v>1.873725861525</v>
-      </c>
-      <c r="S27">
-        <v>8.423357390545099E-05</v>
-      </c>
-      <c r="T27">
-        <v>8.4233573905451E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.9019463333333334</v>
-      </c>
-      <c r="H28">
-        <v>2.705839</v>
-      </c>
-      <c r="I28">
-        <v>0.3817546805118582</v>
-      </c>
-      <c r="J28">
-        <v>0.3817546805118583</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>248.91953</v>
-      </c>
-      <c r="N28">
-        <v>746.7585899999999</v>
-      </c>
-      <c r="O28">
-        <v>0.2379452201904173</v>
-      </c>
-      <c r="P28">
-        <v>0.2379452201904173</v>
-      </c>
-      <c r="Q28">
-        <v>224.5120573785567</v>
-      </c>
-      <c r="R28">
-        <v>2020.60851640701</v>
-      </c>
-      <c r="S28">
-        <v>0.09083670151311651</v>
-      </c>
-      <c r="T28">
-        <v>0.09083670151311653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.9019463333333334</v>
-      </c>
-      <c r="H29">
-        <v>2.705839</v>
-      </c>
-      <c r="I29">
-        <v>0.3817546805118582</v>
-      </c>
-      <c r="J29">
-        <v>0.3817546805118583</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>34.32301466666667</v>
-      </c>
-      <c r="N29">
-        <v>102.969044</v>
-      </c>
-      <c r="O29">
-        <v>0.03280978910115619</v>
-      </c>
-      <c r="P29">
-        <v>0.03280978910115619</v>
-      </c>
-      <c r="Q29">
-        <v>30.95751722754622</v>
-      </c>
-      <c r="R29">
-        <v>278.617655047916</v>
-      </c>
-      <c r="S29">
-        <v>0.01252529055597333</v>
-      </c>
-      <c r="T29">
-        <v>0.01252529055597333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.9019463333333334</v>
-      </c>
-      <c r="H30">
-        <v>2.705839</v>
-      </c>
-      <c r="I30">
-        <v>0.3817546805118582</v>
-      </c>
-      <c r="J30">
-        <v>0.3817546805118583</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>470.9135336666666</v>
-      </c>
-      <c r="N30">
-        <v>1412.740601</v>
-      </c>
-      <c r="O30">
-        <v>0.4501520007649158</v>
-      </c>
-      <c r="P30">
-        <v>0.4501520007649158</v>
-      </c>
-      <c r="Q30">
-        <v>424.7387350076932</v>
-      </c>
-      <c r="R30">
-        <v>3822.648615069239</v>
-      </c>
-      <c r="S30">
-        <v>0.1718476332337842</v>
-      </c>
-      <c r="T30">
-        <v>0.1718476332337842</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.9019463333333334</v>
-      </c>
-      <c r="H31">
-        <v>2.705839</v>
-      </c>
-      <c r="I31">
-        <v>0.3817546805118582</v>
-      </c>
-      <c r="J31">
-        <v>0.3817546805118583</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>276.4319353333333</v>
-      </c>
-      <c r="N31">
-        <v>829.2958060000001</v>
-      </c>
-      <c r="O31">
-        <v>0.2642446646133118</v>
-      </c>
-      <c r="P31">
-        <v>0.2642446646133118</v>
-      </c>
-      <c r="Q31">
-        <v>249.3267704901371</v>
-      </c>
-      <c r="R31">
-        <v>2243.940934411234</v>
-      </c>
-      <c r="S31">
-        <v>0.100876637516418</v>
-      </c>
-      <c r="T31">
-        <v>0.100876637516418</v>
+        <v>0.07080308241804166</v>
       </c>
     </row>
   </sheetData>
